--- a/templates/dataplant/GEO/GEO_-_RNA_extraction.xlsx
+++ b/templates/dataplant/GEO/GEO_-_RNA_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22DA357-89BC-4110-9E36-82C9AEB5B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D881F57-21E7-4B53-8B72-ACF36ECF3672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="1164" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extraction" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
   <si>
     <t>Source Name</t>
   </si>
@@ -139,54 +139,21 @@
     <t>Parameter [Bio entity]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
     <t>Parameter [Biosource amount]</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction method]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000054)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000054)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer volume]</t>
   </si>
   <si>
-    <t>Unit (#2)</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -325,39 +292,6 @@
     <t>at least some info is required, but not all terms</t>
   </si>
   <si>
-    <t>RNA (Transcriptomics)</t>
-  </si>
-  <si>
-    <t>QIAGEN RNEasy</t>
-  </si>
-  <si>
-    <t>PCI method</t>
-  </si>
-  <si>
-    <t>QIAGEN RNEasy Buffer 2</t>
-  </si>
-  <si>
-    <t>phenol:chloroform:isopropanol</t>
-  </si>
-  <si>
-    <t>user-specific</t>
-  </si>
-  <si>
-    <t>milligram</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
-  </si>
-  <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
     <t>Authors Role</t>
   </si>
   <si>
@@ -412,9 +346,6 @@
     <t>http://purl.obolibrary.org/obo/DPBO_1000171</t>
   </si>
   <si>
-    <t>PolyA RNA</t>
-  </si>
-  <si>
     <t>DPBO:0000012</t>
   </si>
   <si>
@@ -479,6 +410,54 @@
   </si>
   <si>
     <t>mandatory</t>
+  </si>
+  <si>
+    <t>Parameter [bio entity]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000012)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000012)</t>
+  </si>
+  <si>
+    <t>Parameter [biosource amount]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
+    <t>Parameter [extraction method]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000054)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000054)</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer volume]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000051)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000051)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,53 +657,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -757,25 +743,25 @@
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
     <tableColumn id="23" xr3:uid="{CD689990-1D45-4ABA-9ADC-9281A50B9B85}" name="Protocol Type"/>
-    <tableColumn id="24" xr3:uid="{68B8709C-1653-432E-9263-0ED2294036FD}" name="Term Source REF (DPBO:1000161)" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{70F004A9-2ED1-432C-9D48-814BE33A8577}" name="Term Accession Number (DPBO:1000161)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{17F12197-5A6B-46DB-84FA-86D856A5419D}" name="Parameter [Bio entity]"/>
-    <tableColumn id="4" xr3:uid="{044F2A2D-417B-41FA-92AE-BB4B1D633855}" name="Term Source REF (NFDI4PSO:0000012)"/>
-    <tableColumn id="5" xr3:uid="{AAF6B443-6DC8-4D9D-A569-3B18A6D8FB63}" name="Term Accession Number (NFDI4PSO:0000012)"/>
-    <tableColumn id="6" xr3:uid="{050A7623-C9D9-4D33-800C-74FC5AA0EBD1}" name="Parameter [Biosource amount]" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{65C787A8-736C-40DB-96A5-25DAA92794FB}" name="Unit" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{8E837113-D409-44C6-864F-8A02D277F170}" name="Term Source REF (NFDI4PSO:0000013)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{F35F7D67-84F8-4E4F-8751-70B46C365E73}" name="Term Accession Number (NFDI4PSO:0000013)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [Extraction method]" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (NFDI4PSO:0000054)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (NFDI4PSO:0000054)" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [Extraction buffer]" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (NFDI4PSO:0000050)" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (NFDI4PSO:0000050)" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [Extraction buffer volume]" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (NFDI4PSO:0000051)" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (NFDI4PSO:0000051)" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{68B8709C-1653-432E-9263-0ED2294036FD}" name="Term Source REF (DPBO:1000161)" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{70F004A9-2ED1-432C-9D48-814BE33A8577}" name="Term Accession Number (DPBO:1000161)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{200A7739-4D0C-4997-8B89-C7B2D82B241E}" name="Parameter [bio entity]"/>
+    <tableColumn id="4" xr3:uid="{969E232A-AE7D-4149-B853-BCFAED6CE4BA}" name="Term Source REF (DPBO:0000012)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{F720B230-EC00-44EF-A883-8085FEA3434F}" name="Term Accession Number (DPBO:0000012)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{532610C5-A6C7-4D18-947E-591A56EEBA09}" name="Parameter [biosource amount]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A7E8532B-C633-4B31-9DCF-0846A5738BA2}" name="Unit" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{86AE3FB3-2C4D-456C-BD1B-903405D9E65B}" name="Term Source REF (DPBO:0000013)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{A769E504-E06C-4F21-8177-644217DD889F}" name="Term Accession Number (DPBO:0000013)" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{322A7E94-F1CA-4F12-9CEE-2DCE26DE18C6}" name="Parameter [extraction method]" dataDxfId="9"/>
+    <tableColumn id="28" xr3:uid="{FE1D601F-BC6F-4B3D-A340-25CA0E8D18A8}" name="Term Source REF (DPBO:0000054)" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{B9502D2A-56C1-4251-8E66-9A9A907F863D}" name="Term Accession Number (DPBO:0000054)" dataDxfId="7"/>
+    <tableColumn id="30" xr3:uid="{C75654A1-E38F-4AC0-A2FA-E4D2927C1DB1}" name="Parameter [extraction buffer]" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{CF83640C-493B-444C-99AE-45560F2B4A57}" name="Term Source REF (DPBO:0000050)" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{3B066C3D-A4A3-4A6F-8BF2-2C284C82B81F}" name="Term Accession Number (DPBO:0000050)" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{5175142F-7037-4A74-874E-52D0D385336C}" name="Parameter [extraction buffer volume]" dataDxfId="3"/>
+    <tableColumn id="34" xr3:uid="{DA7D636F-EB0F-4B9E-BAB9-2E8734EA488A}" name="Unit " dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{1F6F7A5B-5D8E-45AE-9323-E52BB4BF57AC}" name="Term Source REF (DPBO:0000051)" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{66DB6DA0-17F1-4FD7-9A5A-E787BFA5212A}" name="Term Accession Number (DPBO:0000051)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1080,7 +1066,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="634" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="641" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
@@ -1111,38 +1097,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.44140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="41.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1150,64 +1137,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -1215,175 +1202,226 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>75</v>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>75</v>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>75</v>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>75</v>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEA034A-A788-4F64-B4C6-B449FB9D6D64}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1412,115 +1450,115 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
@@ -1528,87 +1566,87 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10"/>
     </row>
@@ -1644,40 +1682,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1685,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -1701,7 +1739,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1725,41 +1763,41 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1767,173 +1805,173 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
